--- a/NCAA/Men/Swimming and Diving.xlsx
+++ b/NCAA/Men/Swimming and Diving.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\NCAA\Men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABB21C-0788-4A7E-A72A-FE795C9AD8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A5C83-05D1-44E4-87AF-0721E41472C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2280" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -36,15 +36,28 @@
     <t>NCAA- Qualifiers and Place</t>
   </si>
   <si>
+    <t>Final NCAA Ranking</t>
+  </si>
+  <si>
     <t>Grinnell</t>
   </si>
   <si>
     <t>100 Free 33rd-Kevin Fitzgerald 42nd-Rommi Adl  200 Fly 24th-Evan Feilmeyer          200 IM 14th-Kevin Fitzgerald           400 IM 8th-Kevin Fitzgerald           200 Free Relay 18th-Rommin Adl, Aidan Donovan,  Kevin Fitzgerald, Evan Feilmeyer 400 Free Relay 15th-Rommin Adl, Aidan Donovan Evan Feilmeyer, Kevin Fitzgerald  400 Med Relay 21st-Rommin Adl, Kevin Fitzgerald, Evan Feilmeyer, Aidan Donovan</t>
   </si>
   <si>
-    <t xml:space="preserve">200 Free 33rd-Sean Colson 
-100 Back 28th-Sean Colson
-200 Back 18th-Sean Colson </t>
+    <t>33/47</t>
+  </si>
+  <si>
+    <t>200 Free 33rd-Sean Colson</t>
+  </si>
+  <si>
+    <t>100 Back 28th-Sean Colson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Back 18th-Sean Colson </t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>1M Diving 16th-Daniel Goldstein                                  3M Diving 17th-Daniel Goldstein</t>
@@ -59,25 +72,48 @@
     <t>200 Free 23rd-Michael Brus     100 Back 19th-Michael Brus     200 Back 11th-Michael Brus     1M Diving 16th-Daniel Goldstein                                  3M Diving 22nd-Daniel Goldstein</t>
   </si>
   <si>
+    <t>41/51</t>
+  </si>
+  <si>
     <t>200 Free 6th-Michael Brus      100 Back 9th-Michael Brus     200 Back 1st-Michael Brus</t>
   </si>
   <si>
+    <t>22/47</t>
+  </si>
+  <si>
     <t>200 Free 10th-Michael Brus     100 Back 8th-Michael Brus     200 Back 3rd-Michael Brus</t>
   </si>
   <si>
-    <t xml:space="preserve">100 Back 18th-Michael Brus 
-200 Back 4th-Michael Brus 
-200 IM 25th-Michael Brus </t>
+    <t>24/52</t>
+  </si>
+  <si>
+    <t>100 Back 18th-Michael Brus</t>
+  </si>
+  <si>
+    <t>200 Back 4th-Michael Brus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 IM 25th-Michael Brus </t>
+  </si>
+  <si>
+    <t>33/48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,12 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,20 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,221 +449,311 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2023</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2022</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2020</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2018</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2017</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2016</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2015</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2014</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2013</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2012</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2011</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2010</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2009</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2008</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2007</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2006</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2005</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2004</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2003</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>